--- a/trunk/FASE 2/PASE A PRODUCCIÓN/Actividades Pase a Producción.xlsx
+++ b/trunk/FASE 2/PASE A PRODUCCIÓN/Actividades Pase a Producción.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,13 +11,72 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>Detener aplicación SAC</t>
+  </si>
+  <si>
+    <t>Hora inicio</t>
+  </si>
+  <si>
+    <t>Hora fin</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Sacar backup a la BD de producción</t>
+  </si>
+  <si>
+    <t>Miguel Ortiz</t>
+  </si>
+  <si>
+    <t>Miguel Ortiz - John Vara</t>
+  </si>
+  <si>
+    <t>Restaurar BD copia en servidor 10.34.2.68</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Ejecutar los scripts en BD de producción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar el nuevo war para que apunte a la BD de producción </t>
+  </si>
+  <si>
+    <t>Informar a los usuarios acerca de la detención del sistema</t>
+  </si>
+  <si>
+    <t>Rita Narro</t>
+  </si>
+  <si>
+    <t>Configurar carpetas para la integración QCX - 10.34.2.66</t>
+  </si>
+  <si>
+    <t>Rita Narro - Miguel Ortiz</t>
+  </si>
+  <si>
+    <t>Configurar Integración QCX con el servidor 10.34.2.66</t>
+  </si>
+  <si>
+    <t>Pruebas Integrales de la aplicación</t>
+  </si>
+  <si>
+    <t>Pase a producción - 10/09/2012</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +84,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +121,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,7 +178,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +286,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,12 +460,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/trunk/FASE 2/PASE A PRODUCCIÓN/Actividades Pase a Producción.xlsx
+++ b/trunk/FASE 2/PASE A PRODUCCIÓN/Actividades Pase a Producción.xlsx
@@ -33,12 +33,6 @@
     <t>Sacar backup a la BD de producción</t>
   </si>
   <si>
-    <t>Miguel Ortiz</t>
-  </si>
-  <si>
-    <t>Miguel Ortiz - John Vara</t>
-  </si>
-  <si>
     <t>Restaurar BD copia en servidor 10.34.2.68</t>
   </si>
   <si>
@@ -60,16 +54,22 @@
     <t>Configurar carpetas para la integración QCX - 10.34.2.66</t>
   </si>
   <si>
-    <t>Rita Narro - Miguel Ortiz</t>
-  </si>
-  <si>
     <t>Configurar Integración QCX con el servidor 10.34.2.66</t>
   </si>
   <si>
     <t>Pruebas Integrales de la aplicación</t>
   </si>
   <si>
-    <t>Pase a producción - 10/09/2012</t>
+    <t>Pase a producción - 29/10/2012</t>
+  </si>
+  <si>
+    <t>Franz Zarate</t>
+  </si>
+  <si>
+    <t>Franz Zarate - John Vara</t>
+  </si>
+  <si>
+    <t>Rita Narro - Franz Zarate</t>
   </si>
 </sst>
 </file>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,11 +166,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +469,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -477,7 +483,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -491,8 +497,8 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -503,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>0.66666666666666663</v>
@@ -512,7 +518,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -529,7 +535,7 @@
         <v>0.83680555555555547</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -546,7 +552,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -554,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>4.5138888888888888E-2</v>
@@ -563,7 +569,7 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -571,16 +577,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>0.21180555555555555</v>
       </c>
       <c r="D7" s="5">
-        <v>0.33680555555555558</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -588,16 +594,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>0.33680555555555558</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="D8" s="5">
-        <v>0.34722222222222227</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -605,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>5.2083333333333336E-2</v>
@@ -614,7 +620,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -622,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>0.10416666666666667</v>
@@ -631,15 +637,15 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="5">
         <v>0.3125</v>
@@ -648,7 +654,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
